--- a/Code/Results/Cases/Case_1_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.356952744087721</v>
+        <v>1.954332188745184</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1328209438966965</v>
+        <v>0.2236207094243312</v>
       </c>
       <c r="E2">
-        <v>0.3033850596852972</v>
+        <v>0.2705100878955164</v>
       </c>
       <c r="F2">
-        <v>0.4550836342764768</v>
+        <v>1.281511570911228</v>
       </c>
       <c r="G2">
-        <v>0.0007844971356260525</v>
+        <v>0.002446657893996875</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5716987694036391</v>
+        <v>0.3910156462670926</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.411087317071662</v>
+        <v>0.912800330224087</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.568225458246275</v>
+        <v>3.122830585786858</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.933240140069074</v>
+        <v>1.823371147136641</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1287100947372011</v>
+        <v>0.2233165457572142</v>
       </c>
       <c r="E3">
-        <v>0.2802196165251942</v>
+        <v>0.2641648254123226</v>
       </c>
       <c r="F3">
-        <v>0.4514580584583854</v>
+        <v>1.301250591704658</v>
       </c>
       <c r="G3">
-        <v>0.0007899199785549606</v>
+        <v>0.002450243460326706</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5197925773407377</v>
+        <v>0.3756362661057722</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.096240076371657</v>
+        <v>0.8099460157775127</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.479269265968327</v>
+        <v>3.150675514364764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.674200558856626</v>
+        <v>1.742978581418981</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1262778736989958</v>
+        <v>0.2231998219204669</v>
       </c>
       <c r="E4">
-        <v>0.2661859454380888</v>
+        <v>0.2603610044638174</v>
       </c>
       <c r="F4">
-        <v>0.4516180921106567</v>
+        <v>1.314526286040419</v>
       </c>
       <c r="G4">
-        <v>0.0007933511297758423</v>
+        <v>0.00245256200940658</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4882648319056386</v>
+        <v>0.3663186081013947</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.903370483947555</v>
+        <v>0.7465491669266839</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.431305411113243</v>
+        <v>3.170708462998107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568862453436282</v>
+        <v>1.710224118925169</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1253094039352831</v>
+        <v>0.223169973419779</v>
       </c>
       <c r="E5">
-        <v>0.2605118209973156</v>
+        <v>0.258834348216773</v>
       </c>
       <c r="F5">
-        <v>0.4522478514509842</v>
+        <v>1.3202261931824</v>
       </c>
       <c r="G5">
-        <v>0.0007947755856937476</v>
+        <v>0.002453536349084012</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4754958869358461</v>
+        <v>0.3625535564687539</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.824849136492219</v>
+        <v>0.7206545757124161</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.413319093114438</v>
+        <v>3.179608155346045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.551382935045467</v>
+        <v>1.704785686203081</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1251499487361656</v>
+        <v>0.2231660903477746</v>
       </c>
       <c r="E6">
-        <v>0.2595722528174136</v>
+        <v>0.258582270717099</v>
       </c>
       <c r="F6">
-        <v>0.4523855225391671</v>
+        <v>1.321190150508194</v>
       </c>
       <c r="G6">
-        <v>0.0007950137199724369</v>
+        <v>0.002453699922471575</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4733801739441788</v>
+        <v>0.3619303168644876</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.811814177368717</v>
+        <v>0.7163512270631145</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.410423450909065</v>
+        <v>3.181130337046056</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.672779106235225</v>
+        <v>1.74253681616301</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.12626472126545</v>
+        <v>0.2231993474934697</v>
       </c>
       <c r="E7">
-        <v>0.2661092450388978</v>
+        <v>0.2603403202378018</v>
       </c>
       <c r="F7">
-        <v>0.4516243447794963</v>
+        <v>1.314601983899919</v>
       </c>
       <c r="G7">
-        <v>0.0007933702333103355</v>
+        <v>0.00245257503013158</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4880923153714889</v>
+        <v>0.3662677012498534</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.902311263691473</v>
+        <v>0.7462001838078436</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.431056673526228</v>
+        <v>3.17082550983352</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210586541123007</v>
+        <v>1.909173996182972</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1313841905985456</v>
+        <v>0.2235013614662975</v>
       </c>
       <c r="E8">
-        <v>0.2953562407722856</v>
+        <v>0.2683032510595638</v>
       </c>
       <c r="F8">
-        <v>0.4533162610298689</v>
+        <v>1.288077270736125</v>
       </c>
       <c r="G8">
-        <v>0.0007863463058494257</v>
+        <v>0.002447869969976211</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5537257138068838</v>
+        <v>0.3856870827367942</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.302411067692873</v>
+        <v>0.8773876177005207</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.536100957958013</v>
+        <v>3.13182082046626</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.277092754118883</v>
+        <v>2.236039264819567</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.142174308759607</v>
+        <v>0.2246448499111722</v>
       </c>
       <c r="E9">
-        <v>0.3543729631517607</v>
+        <v>0.2846403734508627</v>
       </c>
       <c r="F9">
-        <v>0.4772832475733679</v>
+        <v>1.245264686095787</v>
       </c>
       <c r="G9">
-        <v>0.0007733432772021495</v>
+        <v>0.002439567467996434</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6855250875555612</v>
+        <v>0.4247458310985763</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.092477159792907</v>
+        <v>1.132660199660563</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.800447406260162</v>
+        <v>3.078729555036318</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.072472146990606</v>
+        <v>2.476198271511691</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1505950383141297</v>
+        <v>0.2258154020381511</v>
       </c>
       <c r="E10">
-        <v>0.3989907962746955</v>
+        <v>0.2970720624249878</v>
       </c>
       <c r="F10">
-        <v>0.5100623650888707</v>
+        <v>1.219462927437313</v>
       </c>
       <c r="G10">
-        <v>0.0007642078378755178</v>
+        <v>0.002434025067526193</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7848245700524075</v>
+        <v>0.4540190196081255</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.679260505722141</v>
+        <v>1.318951199607511</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.038608787856759</v>
+        <v>3.054128526533418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.438014483278323</v>
+        <v>2.585448343341056</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1545420337067469</v>
+        <v>0.2264185177725437</v>
       </c>
       <c r="E11">
-        <v>0.4196231720796817</v>
+        <v>0.3028184770093816</v>
       </c>
       <c r="F11">
-        <v>0.5289027675414602</v>
+        <v>1.20896161877161</v>
       </c>
       <c r="G11">
-        <v>0.0007601299491589965</v>
+        <v>0.002431623469578696</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8306800158850365</v>
+        <v>0.4674577424713959</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.948322601781626</v>
+        <v>1.403418548556601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.158558140187097</v>
+        <v>3.046095464355176</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.577074713376817</v>
+        <v>2.626817515020036</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1560542255643043</v>
+        <v>0.2266569590859149</v>
       </c>
       <c r="E12">
-        <v>0.4274899896530471</v>
+        <v>0.3050073988334532</v>
       </c>
       <c r="F12">
-        <v>0.5366608556707604</v>
+        <v>1.205163548293164</v>
       </c>
       <c r="G12">
-        <v>0.0007585958049389622</v>
+        <v>0.002430731159213776</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8481560050339567</v>
+        <v>0.4725638507228496</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.050584228887487</v>
+        <v>1.435363212087168</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.205840074223516</v>
+        <v>3.043510124324939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.547095524729912</v>
+        <v>2.617908012577914</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1557277534561337</v>
+        <v>0.2266051609076669</v>
       </c>
       <c r="E13">
-        <v>0.4257932433594007</v>
+        <v>0.3045354061773509</v>
       </c>
       <c r="F13">
-        <v>0.5349612813769298</v>
+        <v>1.205973576966457</v>
       </c>
       <c r="G13">
-        <v>0.0007589257818865739</v>
+        <v>0.002430922573947079</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8443870527470665</v>
+        <v>0.4714634024749387</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.028542597111596</v>
+        <v>1.428485215471994</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.19557111906019</v>
+        <v>3.044046576405634</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.449441658272406</v>
+        <v>2.588851847876128</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1546660859037274</v>
+        <v>0.2264379335515798</v>
       </c>
       <c r="E14">
-        <v>0.4202692682213822</v>
+        <v>0.3029983041135011</v>
       </c>
       <c r="F14">
-        <v>0.52952817536071</v>
+        <v>1.208645566262781</v>
       </c>
       <c r="G14">
-        <v>0.0007600035393869886</v>
+        <v>0.00243154971599172</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8321154602748209</v>
+        <v>0.4678774835964816</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.956727829923352</v>
+        <v>1.406047490629135</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.162409624384054</v>
+        <v>3.04587360161068</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.389712045103465</v>
+        <v>2.571053873154995</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1540180952341643</v>
+        <v>0.2263368083705615</v>
       </c>
       <c r="E15">
-        <v>0.4168928523436364</v>
+        <v>0.3020584551954641</v>
       </c>
       <c r="F15">
-        <v>0.5262832939727602</v>
+        <v>1.210305512878826</v>
       </c>
       <c r="G15">
-        <v>0.0007606649721431754</v>
+        <v>0.002431936085757727</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8246136952306529</v>
+        <v>0.4656832267148445</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.912789980667696</v>
+        <v>1.39229831834615</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.142345411191826</v>
+        <v>3.047052244471274</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.04866647858438</v>
+        <v>2.469058400732308</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1503395022801541</v>
+        <v>0.2257773994763994</v>
       </c>
       <c r="E16">
-        <v>0.3976496340305289</v>
+        <v>0.2966983354964512</v>
       </c>
       <c r="F16">
-        <v>0.5089150495448536</v>
+        <v>1.220174153883548</v>
       </c>
       <c r="G16">
-        <v>0.0007644758098269947</v>
+        <v>0.002434184418393899</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7818426649373293</v>
+        <v>0.4531431905916179</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.66172514283511</v>
+        <v>1.313425357534072</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.031019270350498</v>
+        <v>3.054717266499694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.840468646227464</v>
+        <v>2.406486510862521</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1481131621652949</v>
+        <v>0.2254522365830667</v>
       </c>
       <c r="E17">
-        <v>0.3859342407542101</v>
+        <v>0.2934332616864666</v>
       </c>
       <c r="F17">
-        <v>0.4993065148770341</v>
+        <v>1.226545399075547</v>
       </c>
       <c r="G17">
-        <v>0.0007668328044234392</v>
+        <v>0.002435594286368878</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.755788106006321</v>
+        <v>0.4454812833792232</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.508296599638811</v>
+        <v>1.264967299958698</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.965827313866441</v>
+        <v>3.060230131793702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.72106223817832</v>
+        <v>2.37049695394046</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1468435288145145</v>
+        <v>0.2252718650878052</v>
       </c>
       <c r="E18">
-        <v>0.3792270714084651</v>
+        <v>0.2915638731139722</v>
       </c>
       <c r="F18">
-        <v>0.4941459329270401</v>
+        <v>1.230326264671064</v>
       </c>
       <c r="G18">
-        <v>0.0007681958883555316</v>
+        <v>0.0024364164738584</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7408656891127521</v>
+        <v>0.4410858835076539</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.420244772952572</v>
+        <v>1.237069481737137</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.92941084115904</v>
+        <v>3.063698090396883</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.680689314591291</v>
+        <v>2.358311579855183</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1464155011416253</v>
+        <v>0.2252119402733541</v>
       </c>
       <c r="E19">
-        <v>0.3769613405115919</v>
+        <v>0.2909324137024356</v>
       </c>
       <c r="F19">
-        <v>0.4924598107113738</v>
+        <v>1.231626349813872</v>
       </c>
       <c r="G19">
-        <v>0.0007686587095309138</v>
+        <v>0.002436696790601729</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7358237359091362</v>
+        <v>0.4395996692118729</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.390463699089878</v>
+        <v>1.227619333426219</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.917260870707253</v>
+        <v>3.064923233963611</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.862595402394163</v>
+        <v>2.413147392228211</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1483490262670557</v>
+        <v>0.2254861628444189</v>
       </c>
       <c r="E20">
-        <v>0.3871780953723345</v>
+        <v>0.293779946458173</v>
       </c>
       <c r="F20">
-        <v>0.5002910737391915</v>
+        <v>1.22585512731893</v>
       </c>
       <c r="G20">
-        <v>0.000766581140032709</v>
+        <v>0.002435443037825717</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7585549971822019</v>
+        <v>0.4462957165871444</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.524608557470117</v>
+        <v>1.270128446729643</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.972653989572962</v>
+        <v>3.059612510703147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.478106805178527</v>
+        <v>2.597386399400591</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1549774401271122</v>
+        <v>0.2264867802061303</v>
       </c>
       <c r="E21">
-        <v>0.4218902869578542</v>
+        <v>0.303449440529505</v>
       </c>
       <c r="F21">
-        <v>0.5311065893814586</v>
+        <v>1.207855886097576</v>
       </c>
       <c r="G21">
-        <v>0.000759686712318636</v>
+        <v>0.00243136504525875</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8357167854991587</v>
+        <v>0.468930292566796</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.97781085801887</v>
+        <v>1.412639125857652</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.172097876369293</v>
+        <v>3.045324548105157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.884148528446758</v>
+        <v>2.717788054440462</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1594122338966741</v>
+        <v>0.227199300565303</v>
       </c>
       <c r="E22">
-        <v>0.4448931962688576</v>
+        <v>0.3098439806061748</v>
       </c>
       <c r="F22">
-        <v>0.5549127734318446</v>
+        <v>1.197133424589524</v>
       </c>
       <c r="G22">
-        <v>0.0007552388608681189</v>
+        <v>0.002428799606336567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8868036770373919</v>
+        <v>0.4838231064478009</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.27621887368548</v>
+        <v>1.505536809825117</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.313388126704979</v>
+        <v>3.038649138656695</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.667055043724758</v>
+        <v>2.653528761209429</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1570356062264722</v>
+        <v>0.2268136900386253</v>
       </c>
       <c r="E23">
-        <v>0.4325851714945657</v>
+        <v>0.3064243100025905</v>
       </c>
       <c r="F23">
-        <v>0.5418505904551409</v>
+        <v>1.202760678860365</v>
       </c>
       <c r="G23">
-        <v>0.0007576078532224776</v>
+        <v>0.002430159728914271</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8594727773529769</v>
+        <v>0.4758655337042796</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.116726307919521</v>
+        <v>1.455978098449521</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.236909736273446</v>
+        <v>3.041967483495938</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.852591002440249</v>
+        <v>2.410136057922159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1482423600252289</v>
+        <v>0.2254708043120104</v>
       </c>
       <c r="E24">
-        <v>0.3866156613795582</v>
+        <v>0.2936231861269576</v>
       </c>
       <c r="F24">
-        <v>0.4998448268436277</v>
+        <v>1.226166831816677</v>
       </c>
       <c r="G24">
-        <v>0.0007666948924135472</v>
+        <v>0.002435511381146587</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7573039100687566</v>
+        <v>0.4459274816086349</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.517233439528923</v>
+        <v>1.267795212534622</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.969564351860669</v>
+        <v>3.059890807428019</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.986855963688811</v>
+        <v>2.147608612048373</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1391714854856048</v>
+        <v>0.2242770781105321</v>
       </c>
       <c r="E25">
-        <v>0.3382055425323358</v>
+        <v>0.2801446540664614</v>
       </c>
       <c r="F25">
-        <v>0.4683353654228171</v>
+        <v>1.255857038352787</v>
       </c>
       <c r="G25">
-        <v>0.0007767835443042275</v>
+        <v>0.002441715195963146</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6494822465392218</v>
+        <v>0.4140767872051896</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.877866387682673</v>
+        <v>1.063819820018466</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.721866194084413</v>
+        <v>3.090572688611672</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.954332188745184</v>
+        <v>3.356952744088005</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2236207094243312</v>
+        <v>0.1328209438964549</v>
       </c>
       <c r="E2">
-        <v>0.2705100878955164</v>
+        <v>0.3033850596853327</v>
       </c>
       <c r="F2">
-        <v>1.281511570911228</v>
+        <v>0.455083634276491</v>
       </c>
       <c r="G2">
-        <v>0.002446657893996875</v>
+        <v>0.0007844971355968477</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3910156462670926</v>
+        <v>0.5716987694036249</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.912800330224087</v>
+        <v>2.411087317071747</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.122830585786858</v>
+        <v>1.568225458246332</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.823371147136641</v>
+        <v>2.933240140068847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2233165457572142</v>
+        <v>0.1287100947373432</v>
       </c>
       <c r="E3">
-        <v>0.2641648254123226</v>
+        <v>0.2802196165252084</v>
       </c>
       <c r="F3">
-        <v>1.301250591704658</v>
+        <v>0.4514580584583996</v>
       </c>
       <c r="G3">
-        <v>0.002450243460326706</v>
+        <v>0.0007899199785552887</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3756362661057722</v>
+        <v>0.5197925773407377</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8099460157775127</v>
+        <v>2.096240076371572</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.150675514364764</v>
+        <v>1.479269265968327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.742978581418981</v>
+        <v>2.674200558856967</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2231998219204669</v>
+        <v>0.1262778736987258</v>
       </c>
       <c r="E4">
-        <v>0.2603610044638174</v>
+        <v>0.2661859454380888</v>
       </c>
       <c r="F4">
-        <v>1.314526286040419</v>
+        <v>0.451618092110678</v>
       </c>
       <c r="G4">
-        <v>0.00245256200940658</v>
+        <v>0.0007933511297180673</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3663186081013947</v>
+        <v>0.4882648319056813</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7465491669266839</v>
+        <v>1.903370483947668</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.170708462998107</v>
+        <v>1.431305411113158</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.710224118925169</v>
+        <v>2.56886245343668</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.223169973419779</v>
+        <v>0.1253094039355531</v>
       </c>
       <c r="E5">
-        <v>0.258834348216773</v>
+        <v>0.2605118209973014</v>
       </c>
       <c r="F5">
-        <v>1.3202261931824</v>
+        <v>0.4522478514509913</v>
       </c>
       <c r="G5">
-        <v>0.002453536349084012</v>
+        <v>0.0007947755856924643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3625535564687539</v>
+        <v>0.4754958869358887</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7206545757124161</v>
+        <v>1.824849136492162</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.179608155346045</v>
+        <v>1.413319093114438</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.704785686203081</v>
+        <v>2.551382935045524</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2231660903477746</v>
+        <v>0.1251499487361585</v>
       </c>
       <c r="E6">
-        <v>0.258582270717099</v>
+        <v>0.259572252817442</v>
       </c>
       <c r="F6">
-        <v>1.321190150508194</v>
+        <v>0.4523855225391742</v>
       </c>
       <c r="G6">
-        <v>0.002453699922471575</v>
+        <v>0.000795013719972659</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3619303168644876</v>
+        <v>0.4733801739441788</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7163512270631145</v>
+        <v>1.811814177368689</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.181130337046056</v>
+        <v>1.410423450909065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.74253681616301</v>
+        <v>2.672779106235168</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2231993474934697</v>
+        <v>0.1262647212652013</v>
       </c>
       <c r="E7">
-        <v>0.2603403202378018</v>
+        <v>0.266109245038912</v>
       </c>
       <c r="F7">
-        <v>1.314601983899919</v>
+        <v>0.4516243447795318</v>
       </c>
       <c r="G7">
-        <v>0.00245257503013158</v>
+        <v>0.000793370233331255</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3662677012498534</v>
+        <v>0.4880923153714605</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7462001838078436</v>
+        <v>1.902311263691445</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.17082550983352</v>
+        <v>1.431056673526086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.909173996182972</v>
+        <v>3.210586541123007</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2235013614662975</v>
+        <v>0.1313841905988227</v>
       </c>
       <c r="E8">
-        <v>0.2683032510595638</v>
+        <v>0.2953562407722572</v>
       </c>
       <c r="F8">
-        <v>1.288077270736125</v>
+        <v>0.453316261029876</v>
       </c>
       <c r="G8">
-        <v>0.002447869969976211</v>
+        <v>0.0007863463058490024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3856870827367942</v>
+        <v>0.5537257138069691</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8773876177005207</v>
+        <v>2.302411067692759</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.13182082046626</v>
+        <v>1.536100957957956</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.236039264819567</v>
+        <v>4.277092754119053</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2246448499111722</v>
+        <v>0.1421743087596212</v>
       </c>
       <c r="E9">
-        <v>0.2846403734508627</v>
+        <v>0.354372963151782</v>
       </c>
       <c r="F9">
-        <v>1.245264686095787</v>
+        <v>0.4772832475733466</v>
       </c>
       <c r="G9">
-        <v>0.002439567467996434</v>
+        <v>0.0007733432772033128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4247458310985763</v>
+        <v>0.6855250875555328</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.132660199660563</v>
+        <v>3.092477159792963</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.078729555036318</v>
+        <v>1.800447406260133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.476198271511691</v>
+        <v>5.072472146990322</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2258154020381511</v>
+        <v>0.1505950383141297</v>
       </c>
       <c r="E10">
-        <v>0.2970720624249878</v>
+        <v>0.3989907962746955</v>
       </c>
       <c r="F10">
-        <v>1.219462927437313</v>
+        <v>0.5100623650888636</v>
       </c>
       <c r="G10">
-        <v>0.002434025067526193</v>
+        <v>0.0007642078378749072</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4540190196081255</v>
+        <v>0.7848245700523364</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.318951199607511</v>
+        <v>3.679260505722141</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.054128526533418</v>
+        <v>2.038608787856788</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.585448343341056</v>
+        <v>5.438014483278437</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2264185177725437</v>
+        <v>0.1545420337068464</v>
       </c>
       <c r="E11">
-        <v>0.3028184770093816</v>
+        <v>0.4196231720797243</v>
       </c>
       <c r="F11">
-        <v>1.20896161877161</v>
+        <v>0.5289027675414388</v>
       </c>
       <c r="G11">
-        <v>0.002431623469578696</v>
+        <v>0.0007601299491852557</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4674577424713959</v>
+        <v>0.8306800158850081</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.403418548556601</v>
+        <v>3.948322601781626</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.046095464355176</v>
+        <v>2.158558140187154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.626817515020036</v>
+        <v>5.577074713376931</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2266569590859149</v>
+        <v>0.1560542255642474</v>
       </c>
       <c r="E12">
-        <v>0.3050073988334532</v>
+        <v>0.4274899896530329</v>
       </c>
       <c r="F12">
-        <v>1.205163548293164</v>
+        <v>0.5366608556707888</v>
       </c>
       <c r="G12">
-        <v>0.002430731159213776</v>
+        <v>0.0007585958049094336</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4725638507228496</v>
+        <v>0.8481560050339851</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.435363212087168</v>
+        <v>4.050584228887374</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.043510124324939</v>
+        <v>2.205840074223516</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.617908012577914</v>
+        <v>5.547095524730366</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2266051609076669</v>
+        <v>0.1557277534561905</v>
       </c>
       <c r="E13">
-        <v>0.3045354061773509</v>
+        <v>0.4257932433594149</v>
       </c>
       <c r="F13">
-        <v>1.205973576966457</v>
+        <v>0.534961281376944</v>
       </c>
       <c r="G13">
-        <v>0.002430922573947079</v>
+        <v>0.0007589257819159948</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4714634024749387</v>
+        <v>0.8443870527470096</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.428485215471994</v>
+        <v>4.028542597111709</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.044046576405634</v>
+        <v>2.19557111906019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.588851847876128</v>
+        <v>5.449441658272633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2264379335515798</v>
+        <v>0.1546660859038269</v>
       </c>
       <c r="E14">
-        <v>0.3029983041135011</v>
+        <v>0.4202692682213964</v>
       </c>
       <c r="F14">
-        <v>1.208645566262781</v>
+        <v>0.5295281753607028</v>
       </c>
       <c r="G14">
-        <v>0.00243154971599172</v>
+        <v>0.0007600035393582843</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4678774835964816</v>
+        <v>0.8321154602748493</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.406047490629135</v>
+        <v>3.956727829923295</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.04587360161068</v>
+        <v>2.162409624383969</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.571053873154995</v>
+        <v>5.389712045103408</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2263368083705615</v>
+        <v>0.1540180952340506</v>
       </c>
       <c r="E15">
-        <v>0.3020584551954641</v>
+        <v>0.4168928523436577</v>
       </c>
       <c r="F15">
-        <v>1.210305512878826</v>
+        <v>0.5262832939727602</v>
       </c>
       <c r="G15">
-        <v>0.002431936085757727</v>
+        <v>0.0007606649720859708</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4656832267148445</v>
+        <v>0.8246136952306244</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.39229831834615</v>
+        <v>3.912789980667753</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.047052244471274</v>
+        <v>2.142345411191826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.469058400732308</v>
+        <v>5.04866647858438</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2257773994763994</v>
+        <v>0.1503395022799268</v>
       </c>
       <c r="E16">
-        <v>0.2966983354964512</v>
+        <v>0.3976496340305573</v>
       </c>
       <c r="F16">
-        <v>1.220174153883548</v>
+        <v>0.5089150495448536</v>
       </c>
       <c r="G16">
-        <v>0.002434184418393899</v>
+        <v>0.0007644758098266927</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4531431905916179</v>
+        <v>0.7818426649373293</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.313425357534072</v>
+        <v>3.661725142835166</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.054717266499694</v>
+        <v>2.031019270350441</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.406486510862521</v>
+        <v>4.840468646227578</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2254522365830667</v>
+        <v>0.1481131621654015</v>
       </c>
       <c r="E17">
-        <v>0.2934332616864666</v>
+        <v>0.3859342407542101</v>
       </c>
       <c r="F17">
-        <v>1.226545399075547</v>
+        <v>0.4993065148770341</v>
       </c>
       <c r="G17">
-        <v>0.002435594286368878</v>
+        <v>0.0007668328043661986</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4454812833792232</v>
+        <v>0.7557881060062357</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.264967299958698</v>
+        <v>3.508296599638754</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.060230131793702</v>
+        <v>1.965827313866356</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.37049695394046</v>
+        <v>4.721062238178206</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2252718650878052</v>
+        <v>0.1468435288144647</v>
       </c>
       <c r="E18">
-        <v>0.2915638731139722</v>
+        <v>0.3792270714085006</v>
       </c>
       <c r="F18">
-        <v>1.230326264671064</v>
+        <v>0.4941459329270117</v>
       </c>
       <c r="G18">
-        <v>0.0024364164738584</v>
+        <v>0.0007681958882998814</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4410858835076539</v>
+        <v>0.7408656891127237</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.237069481737137</v>
+        <v>3.420244772952628</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.063698090396883</v>
+        <v>1.92941084115904</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.358311579855183</v>
+        <v>4.680689314591177</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2252119402733541</v>
+        <v>0.1464155011416679</v>
       </c>
       <c r="E19">
-        <v>0.2909324137024356</v>
+        <v>0.376961340511599</v>
       </c>
       <c r="F19">
-        <v>1.231626349813872</v>
+        <v>0.4924598107113809</v>
       </c>
       <c r="G19">
-        <v>0.002436696790601729</v>
+        <v>0.0007686587095034336</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4395996692118729</v>
+        <v>0.7358237359090367</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.227619333426219</v>
+        <v>3.390463699089878</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.064923233963611</v>
+        <v>1.917260870707253</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.413147392228211</v>
+        <v>4.862595402393993</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2254861628444189</v>
+        <v>0.1483490262670699</v>
       </c>
       <c r="E20">
-        <v>0.293779946458173</v>
+        <v>0.3871780953723274</v>
       </c>
       <c r="F20">
-        <v>1.22585512731893</v>
+        <v>0.5002910737391986</v>
       </c>
       <c r="G20">
-        <v>0.002435443037825717</v>
+        <v>0.0007665811399775942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4462957165871444</v>
+        <v>0.7585549971822161</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.270128446729643</v>
+        <v>3.524608557470231</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.059612510703147</v>
+        <v>1.972653989572933</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.597386399400591</v>
+        <v>5.47810680517847</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2264867802061303</v>
+        <v>0.1549774401271122</v>
       </c>
       <c r="E21">
-        <v>0.303449440529505</v>
+        <v>0.4218902869578827</v>
       </c>
       <c r="F21">
-        <v>1.207855886097576</v>
+        <v>0.5311065893814515</v>
       </c>
       <c r="G21">
-        <v>0.00243136504525875</v>
+        <v>0.0007596867122903391</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.468930292566796</v>
+        <v>0.8357167854991872</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.412639125857652</v>
+        <v>3.97781085801887</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.045324548105157</v>
+        <v>2.172097876369293</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.717788054440462</v>
+        <v>5.884148528447042</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.227199300565303</v>
+        <v>0.1594122338965605</v>
       </c>
       <c r="E22">
-        <v>0.3098439806061748</v>
+        <v>0.4448931962688931</v>
       </c>
       <c r="F22">
-        <v>1.197133424589524</v>
+        <v>0.5549127734318375</v>
       </c>
       <c r="G22">
-        <v>0.002428799606336567</v>
+        <v>0.0007552388608991503</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4838231064478009</v>
+        <v>0.8868036770374204</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.505536809825117</v>
+        <v>4.27621887368565</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.038649138656695</v>
+        <v>2.31338812670495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.653528761209429</v>
+        <v>5.667055043724758</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2268136900386253</v>
+        <v>0.1570356062266001</v>
       </c>
       <c r="E23">
-        <v>0.3064243100025905</v>
+        <v>0.4325851714945159</v>
       </c>
       <c r="F23">
-        <v>1.202760678860365</v>
+        <v>0.5418505904551125</v>
       </c>
       <c r="G23">
-        <v>0.002430159728914271</v>
+        <v>0.0007576078531645279</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4758655337042796</v>
+        <v>0.8594727773530053</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.455978098449521</v>
+        <v>4.116726307919578</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.041967483495938</v>
+        <v>2.23690973627339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.410136057922159</v>
+        <v>4.852591002439794</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2254708043120104</v>
+        <v>0.1482423600251153</v>
       </c>
       <c r="E24">
-        <v>0.2936231861269576</v>
+        <v>0.3866156613795297</v>
       </c>
       <c r="F24">
-        <v>1.226166831816677</v>
+        <v>0.4998448268436277</v>
       </c>
       <c r="G24">
-        <v>0.002435511381146587</v>
+        <v>0.0007666948924136298</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4459274816086349</v>
+        <v>0.7573039100688135</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.267795212534622</v>
+        <v>3.517233439528923</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.059890807428019</v>
+        <v>1.969564351860669</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.147608612048373</v>
+        <v>3.986855963688924</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2242770781105321</v>
+        <v>0.1391714854853703</v>
       </c>
       <c r="E25">
-        <v>0.2801446540664614</v>
+        <v>0.3382055425323074</v>
       </c>
       <c r="F25">
-        <v>1.255857038352787</v>
+        <v>0.4683353654228313</v>
       </c>
       <c r="G25">
-        <v>0.002441715195963146</v>
+        <v>0.0007767835443034722</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4140767872051896</v>
+        <v>0.6494822465391934</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.063819820018466</v>
+        <v>2.877866387682843</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.090572688611672</v>
+        <v>1.721866194084441</v>
       </c>
     </row>
   </sheetData>
